--- a/Book/반월도서관희망도서목록2019.xlsx
+++ b/Book/반월도서관희망도서목록2019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\02_Doc\doc\Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25963A-6225-4A6E-A598-620EA9FC9060}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -5244,12 +5243,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5258,14 +5257,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5274,7 +5273,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5410,7 +5409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5515,6 +5514,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5829,28 +5831,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5863,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5882,7 +5884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -6020,7 +6022,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6135,7 +6137,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6158,7 +6160,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6204,7 +6206,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -6411,7 +6413,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -6480,7 +6482,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6606,7 +6608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -6616,19 +6618,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="89.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>962</v>
       </c>
@@ -6640,7 +6642,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -6664,7 +6666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -6976,7 +6978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -7002,7 +7004,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -7195,7 +7197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -7205,18 +7207,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7228,7 +7230,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -7252,7 +7254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -7356,7 +7358,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -7382,7 +7384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7616,7 +7618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -7757,7 +7759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -7767,19 +7769,19 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="97.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>1156</v>
       </c>
@@ -7791,7 +7793,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -7815,7 +7817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -7945,7 +7947,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -8023,7 +8025,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -8127,7 +8129,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -8153,7 +8155,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -8257,7 +8259,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -8387,7 +8389,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -8543,7 +8545,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -8580,7 +8582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -8590,19 +8592,19 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>1287</v>
       </c>
@@ -8614,7 +8616,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -8638,7 +8640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -8716,7 +8718,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -8768,7 +8770,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -8872,7 +8874,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -8924,7 +8926,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -8950,7 +8952,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -9054,7 +9056,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -9184,7 +9186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -9210,7 +9212,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -9262,7 +9264,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -9481,26 +9483,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>1430</v>
       </c>
@@ -9512,7 +9517,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -9536,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -9549,7 +9554,7 @@
       <c r="D3" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="24" t="s">
         <v>1433</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -9562,7 +9567,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -9575,7 +9580,7 @@
       <c r="D4" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="24" t="s">
         <v>1438</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -9588,7 +9593,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="D5" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="24" t="s">
         <v>1441</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -9614,7 +9619,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -9627,7 +9632,7 @@
       <c r="D6" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="24" t="s">
         <v>1444</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -9640,7 +9645,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -9692,7 +9697,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -9770,7 +9775,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -9822,7 +9827,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -9848,7 +9853,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -9874,7 +9879,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -9900,7 +9905,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -9952,7 +9957,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -9978,7 +9983,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -10004,7 +10009,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -10030,7 +10035,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -10082,7 +10087,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -10108,7 +10113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -10134,7 +10139,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -10160,7 +10165,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -10212,7 +10217,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -10264,7 +10269,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>29</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>30</v>
       </c>
@@ -10316,7 +10321,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>31</v>
       </c>
@@ -10342,7 +10347,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>32</v>
       </c>
@@ -10368,7 +10373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>33</v>
       </c>
@@ -10394,7 +10399,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>34</v>
       </c>
@@ -10420,7 +10425,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>35</v>
       </c>
@@ -10446,7 +10451,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>36</v>
       </c>
@@ -10472,7 +10477,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>37</v>
       </c>
@@ -10498,7 +10503,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>38</v>
       </c>
@@ -10524,7 +10529,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>39</v>
       </c>
@@ -10550,7 +10555,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>40</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>41</v>
       </c>
@@ -10602,7 +10607,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>42</v>
       </c>
@@ -10628,7 +10633,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>43</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>44</v>
       </c>
@@ -10680,7 +10685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>45</v>
       </c>
@@ -10706,7 +10711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>46</v>
       </c>
@@ -10743,29 +10748,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6DE92A-8DF2-43F1-8092-3558ADD8367D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>1634</v>
       </c>
@@ -10777,7 +10782,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -10801,7 +10806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -10827,7 +10832,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -10905,7 +10910,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -10947,17 +10952,17 @@
       <c r="E8" s="18" t="s">
         <v>1661</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="35" t="s">
         <v>1662</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="35" t="s">
         <v>422</v>
       </c>
       <c r="H8" s="11">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -10983,7 +10988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -11035,7 +11040,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -11061,7 +11066,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -11087,7 +11092,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -11113,7 +11118,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -11139,7 +11144,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -11165,7 +11170,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -11191,7 +11196,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -11217,7 +11222,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -11269,7 +11274,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -11299,20 +11304,21 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11320,7 +11326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11330,18 +11336,18 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>157</v>
       </c>
@@ -11352,7 +11358,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -11373,7 +11379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -11396,7 +11402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -11419,7 +11425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -11442,7 +11448,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -11465,7 +11471,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1">
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -11488,7 +11494,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1">
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -11511,7 +11517,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1">
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1">
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -11557,7 +11563,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -11580,7 +11586,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1">
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -11603,7 +11609,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1">
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -11626,7 +11632,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1">
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1">
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -11672,7 +11678,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1">
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -11695,7 +11701,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -11741,7 +11747,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1">
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11764,7 +11770,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1">
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -11810,7 +11816,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1">
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -11833,7 +11839,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1">
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -11856,7 +11862,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1">
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -11879,7 +11885,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" customHeight="1">
+    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -11902,7 +11908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1">
+    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -11936,29 +11942,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="70.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>261</v>
       </c>
@@ -11970,7 +11976,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -11994,7 +12000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -12020,7 +12026,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12046,7 +12052,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -12098,7 +12104,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -12124,7 +12130,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -12176,7 +12182,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -12202,7 +12208,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -12228,7 +12234,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -12254,7 +12260,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -12280,7 +12286,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -12306,7 +12312,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -12319,7 +12325,7 @@
       <c r="D15" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="18" t="s">
         <v>326</v>
       </c>
       <c r="F15" s="12" t="s">
@@ -12332,7 +12338,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -12384,7 +12390,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -12410,7 +12416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -12462,7 +12468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -12514,7 +12520,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -12540,7 +12546,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -12566,7 +12572,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -12592,7 +12598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -12618,7 +12624,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -12644,7 +12650,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -12681,28 +12687,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>393</v>
       </c>
@@ -12713,7 +12719,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -12734,7 +12740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -12757,7 +12763,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -12780,7 +12786,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -12803,7 +12809,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -12826,7 +12832,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -12849,7 +12855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -12895,7 +12901,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -12941,7 +12947,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -12964,7 +12970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -12987,7 +12993,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -13010,7 +13016,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -13056,7 +13062,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -13079,7 +13085,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -13102,7 +13108,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -13125,7 +13131,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -13148,7 +13154,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -13171,7 +13177,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13205,7 +13211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13215,18 +13221,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>484</v>
       </c>
@@ -13238,7 +13244,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -13262,7 +13268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -13340,7 +13346,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -13444,7 +13450,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -13496,7 +13502,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -13522,7 +13528,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -13652,7 +13658,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -13689,7 +13695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -13699,18 +13705,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>562</v>
       </c>
@@ -13721,7 +13727,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>1</v>
@@ -13742,7 +13748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -13765,7 +13771,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -13788,7 +13794,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -13811,7 +13817,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -13857,7 +13863,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -13880,7 +13886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -13903,7 +13909,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -13926,7 +13932,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -13949,7 +13955,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -13972,7 +13978,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -13995,7 +14001,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -14018,7 +14024,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -14041,7 +14047,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -14064,7 +14070,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -14087,7 +14093,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -14110,7 +14116,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -14133,7 +14139,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -14156,7 +14162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -14179,7 +14185,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -14202,7 +14208,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -14225,7 +14231,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -14259,7 +14265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -14269,19 +14275,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>664</v>
       </c>
@@ -14293,7 +14299,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -14317,7 +14323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -14343,7 +14349,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -14369,7 +14375,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -14395,7 +14401,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -14421,7 +14427,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -14447,7 +14453,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -14473,7 +14479,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -14499,7 +14505,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -14525,7 +14531,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -14551,7 +14557,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -14577,7 +14583,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -14603,7 +14609,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1">
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -14629,7 +14635,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -14655,7 +14661,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -14681,7 +14687,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1">
+    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -14707,7 +14713,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -14733,7 +14739,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -14759,7 +14765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -14785,7 +14791,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -14811,7 +14817,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1">
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>20</v>
       </c>
@@ -14837,7 +14843,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>21</v>
       </c>
@@ -14863,7 +14869,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1">
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -14889,7 +14895,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -14915,7 +14921,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1">
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>24</v>
       </c>
@@ -14952,7 +14958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -14962,19 +14968,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>765</v>
       </c>
@@ -14986,7 +14992,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -15010,7 +15016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -15036,7 +15042,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -15062,7 +15068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -15088,7 +15094,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -15114,7 +15120,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -15140,7 +15146,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -15192,7 +15198,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -15218,7 +15224,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -15244,7 +15250,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>11</v>
       </c>
@@ -15296,7 +15302,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -15322,7 +15328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>13</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -15374,7 +15380,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1">
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>15</v>
       </c>
@@ -15400,7 +15406,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -15426,7 +15432,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1">
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>17</v>
       </c>
@@ -15452,7 +15458,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1">
+    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>18</v>
       </c>
@@ -15478,7 +15484,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>19</v>
       </c>
@@ -15504,7 +15510,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -15530,7 +15536,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>21</v>
       </c>
@@ -15567,7 +15573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -15577,19 +15583,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>863</v>
       </c>
@@ -15601,7 +15607,7 @@
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -15625,7 +15631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -15651,7 +15657,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -15677,7 +15683,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -15703,7 +15709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -15729,7 +15735,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -15755,7 +15761,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -15807,7 +15813,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -15833,7 +15839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -15859,7 +15865,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -15885,7 +15891,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -15911,7 +15917,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -15937,7 +15943,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -15963,7 +15969,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -15989,7 +15995,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -16041,7 +16047,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -16067,7 +16073,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -16093,7 +16099,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -16119,7 +16125,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -16145,7 +16151,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>21</v>
       </c>

--- a/Book/반월도서관희망도서목록2019.xlsx
+++ b/Book/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" activeTab="3"/>
+    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="JUL1" sheetId="15" r:id="rId13"/>
     <sheet name="JUL2" sheetId="16" r:id="rId14"/>
     <sheet name="AUG1" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId16"/>
+    <sheet name="AUG2" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1898">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5238,6 +5239,535 @@
   </si>
   <si>
     <t>을유문화사</t>
+  </si>
+  <si>
+    <t>반월도서관 8월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032951</t>
+  </si>
+  <si>
+    <t>509.13-야32ㅇㅅ</t>
+  </si>
+  <si>
+    <t>일본 과학기술 총력전 : 근대 150년 체제의 파탄</t>
+  </si>
+  <si>
+    <t>야마모토 요시타카 지음 ; 서의동 옮김</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>HBM000032952</t>
+  </si>
+  <si>
+    <t>340.913-서14ㅊㅎ</t>
+  </si>
+  <si>
+    <t>책임에 대하여</t>
+  </si>
+  <si>
+    <t>서경식, 다카하시 데쓰야 [공]지음 ; 한승동 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032953</t>
+  </si>
+  <si>
+    <t>327.856-로98ㄱ</t>
+  </si>
+  <si>
+    <t>기술적 분석</t>
+  </si>
+  <si>
+    <t>로히카, 조광덕 [공]지음</t>
+  </si>
+  <si>
+    <t>뒷받침</t>
+  </si>
+  <si>
+    <t>HBM000032954</t>
+  </si>
+  <si>
+    <t>327.856-와75ㄴ</t>
+  </si>
+  <si>
+    <t>나는 오르는 주식만 산다 = I only buy the stocks that rise</t>
+  </si>
+  <si>
+    <t>와조스키 지음</t>
+  </si>
+  <si>
+    <t>HBM000032955</t>
+  </si>
+  <si>
+    <t>327.856-이12ㄱ</t>
+  </si>
+  <si>
+    <t>개인이 주식시장을 이기는 방법 : 당신이 올라탈 주식은 따로 있다</t>
+  </si>
+  <si>
+    <t>이강혁 지음</t>
+  </si>
+  <si>
+    <t>매일경제신문사</t>
+  </si>
+  <si>
+    <t>HBM000032956</t>
+  </si>
+  <si>
+    <t>327.856-김25ㄷ</t>
+  </si>
+  <si>
+    <t>돈 되는 주식투자 ETF가 답이다</t>
+  </si>
+  <si>
+    <t>김도사, 이슬 [공]지음</t>
+  </si>
+  <si>
+    <t>HBM000032957</t>
+  </si>
+  <si>
+    <t>327.856-이76ㅅ</t>
+  </si>
+  <si>
+    <t>세력이 당황하는 개미투자 절대공식</t>
+  </si>
+  <si>
+    <t>이주영 지음</t>
+  </si>
+  <si>
+    <t>HBM000032958</t>
+  </si>
+  <si>
+    <t>182.1-로77ㄷㅈ</t>
+  </si>
+  <si>
+    <t>다크호스</t>
+  </si>
+  <si>
+    <t>토드 로즈, 오기 오가스 [공]지음 ; 정미나 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032959</t>
+  </si>
+  <si>
+    <t>325.1-피57ㅋㄱ</t>
+  </si>
+  <si>
+    <t>(남과 다른 생각을 인큐베이팅하는)크리에이티브 지니어스</t>
+  </si>
+  <si>
+    <t>피터 피스크 지음 ; 김혜영 옮김</t>
+  </si>
+  <si>
+    <t>빅북</t>
+  </si>
+  <si>
+    <t>HBM000032960</t>
+  </si>
+  <si>
+    <t>848-로74ㄴㄱ</t>
+  </si>
+  <si>
+    <t>누구나 혼자만의 시간이 필요하다</t>
+  </si>
+  <si>
+    <t>스테파니 로젠블룸 지음 ; 김미란 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032961</t>
+  </si>
+  <si>
+    <t>321.97-이17ㄷ</t>
+  </si>
+  <si>
+    <t>디지털 사회 2.0 : 분권화 트렌드와 미래 한국</t>
+  </si>
+  <si>
+    <t>이근 [외]지음</t>
+  </si>
+  <si>
+    <t>HBM000032962</t>
+  </si>
+  <si>
+    <t>517.3-에29ㄱㅈ</t>
+  </si>
+  <si>
+    <t>건강의 배신</t>
+  </si>
+  <si>
+    <t>바버라 에런라이크 지음 ; 조영 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032963</t>
+  </si>
+  <si>
+    <t>512.5153-게68ㅅㅊ</t>
+  </si>
+  <si>
+    <t>사운드 힐링 파워</t>
+  </si>
+  <si>
+    <t>미첼 L. 게이너 지음 ; 천시아 옮김</t>
+  </si>
+  <si>
+    <t>젠북</t>
+  </si>
+  <si>
+    <t>HBM000032964</t>
+  </si>
+  <si>
+    <t>029.8-김54ㅊ</t>
+  </si>
+  <si>
+    <t>초등공부, 독서로 시작해 글쓰기로 끝내라</t>
+  </si>
+  <si>
+    <t>김성효 지음</t>
+  </si>
+  <si>
+    <t>HBM000032965</t>
+  </si>
+  <si>
+    <t>유아원서 843-D67s-[CD/1]</t>
+  </si>
+  <si>
+    <t>(A)Squash and a squeeze</t>
+  </si>
+  <si>
+    <t>written by Julia Donaldson, illustrated by Axel Scheffler</t>
+  </si>
+  <si>
+    <t>Macmillan Children''''s Books</t>
+  </si>
+  <si>
+    <t>HBM000032966</t>
+  </si>
+  <si>
+    <t>아동 511-이57ㄴ2</t>
+  </si>
+  <si>
+    <t>내 몸 사용 설명서</t>
+  </si>
+  <si>
+    <t>이승진 글 ; 봄 그림</t>
+  </si>
+  <si>
+    <t>꿈꾸는사람들</t>
+  </si>
+  <si>
+    <t>HBM000032967</t>
+  </si>
+  <si>
+    <t>327.04-함54ㅊ</t>
+  </si>
+  <si>
+    <t>초고속 부자들의 내공</t>
+  </si>
+  <si>
+    <t>함성일 지음</t>
+  </si>
+  <si>
+    <t>나비의활주로</t>
+  </si>
+  <si>
+    <t>HBM000032968</t>
+  </si>
+  <si>
+    <t>813.7-윤68ㅈ</t>
+  </si>
+  <si>
+    <t>작은마음동호회 : 윤이형 소설</t>
+  </si>
+  <si>
+    <t>윤이형 지음</t>
+  </si>
+  <si>
+    <t>HBM000032969</t>
+  </si>
+  <si>
+    <t>813.7-은97ㅂ</t>
+  </si>
+  <si>
+    <t>빛의 과거 : 은희경 장편소설</t>
+  </si>
+  <si>
+    <t>은희경 지음</t>
+  </si>
+  <si>
+    <t>HBM000032970</t>
+  </si>
+  <si>
+    <t>813.7-염57ㅅ</t>
+  </si>
+  <si>
+    <t>세계는 읽을 수 없이 아름다워 : 염승숙 소설</t>
+  </si>
+  <si>
+    <t>염승숙 지음</t>
+  </si>
+  <si>
+    <t>HBM000032971</t>
+  </si>
+  <si>
+    <t>아동 802-민52ㅊ2</t>
+  </si>
+  <si>
+    <t>초등학생이 좋아하는 글쓰기 소재 365</t>
+  </si>
+  <si>
+    <t>민상기 지음</t>
+  </si>
+  <si>
+    <t>연지</t>
+  </si>
+  <si>
+    <t>HBM000032972</t>
+  </si>
+  <si>
+    <t>005.44-시34ㅇㄱ</t>
+  </si>
+  <si>
+    <t>임베디드 리눅스 프로그래밍 완전정복 : 단계별로 따라 하는</t>
+  </si>
+  <si>
+    <t>크리스 시먼즈 지음 ; 김기주, 김병극, 송지연 [공]옮김</t>
+  </si>
+  <si>
+    <t>에이콘</t>
+  </si>
+  <si>
+    <t>HBM000032973</t>
+  </si>
+  <si>
+    <t>005.12-스88ㅎㅂ</t>
+  </si>
+  <si>
+    <t>Head First Agile</t>
+  </si>
+  <si>
+    <t>앤드류 스텔만, 제니퍼 그린 지음 ; 박현철 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032974</t>
+  </si>
+  <si>
+    <t>591-에38ㄴㅂ</t>
+  </si>
+  <si>
+    <t>(바쁜 엄마도 쉽게 하는)내 아이 사진 정리법</t>
+  </si>
+  <si>
+    <t>Emi 지음 ; 박재현 옮김</t>
+  </si>
+  <si>
+    <t>심플라이프</t>
+  </si>
+  <si>
+    <t>HBM000032975</t>
+  </si>
+  <si>
+    <t>340.21-이64ㅂ</t>
+  </si>
+  <si>
+    <t>반일 종족주의 : 대한민국 위기의 근원</t>
+  </si>
+  <si>
+    <t>이영훈 외 지음</t>
+  </si>
+  <si>
+    <t>미래사</t>
+  </si>
+  <si>
+    <t>HBM000032976</t>
+  </si>
+  <si>
+    <t>005.1-루29ㄹㅎ</t>
+  </si>
+  <si>
+    <t>리얼월드 알고리즘</t>
+  </si>
+  <si>
+    <t>파노스 루리다스 지음 ; 황영숙 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032977</t>
+  </si>
+  <si>
+    <t>813.7-김78ㅇ</t>
+  </si>
+  <si>
+    <t>아무도 흔들 수 없는 나라</t>
+  </si>
+  <si>
+    <t>김진명 원작 ; 백철 그림</t>
+  </si>
+  <si>
+    <t>새움</t>
+  </si>
+  <si>
+    <t>HBM000032978</t>
+  </si>
+  <si>
+    <t>767.5-박32ㅍ</t>
+  </si>
+  <si>
+    <t>프랑스어 회화 핵심패턴 233 = 233 essential patterns for French conversation</t>
+  </si>
+  <si>
+    <t>박만규, Arnaud Duval [공]지음</t>
+  </si>
+  <si>
+    <t>길벗이지톡</t>
+  </si>
+  <si>
+    <t>HBM000032979</t>
+  </si>
+  <si>
+    <t>767.5-미57ㅍ</t>
+  </si>
+  <si>
+    <t>프랑스어 패턴 792 프랑스어 문장 781 : 프랑스어 학습의 완변학 시작</t>
+  </si>
+  <si>
+    <t>Mr. Sun 어학연구소, 옥대경, 김영민 [공]지음</t>
+  </si>
+  <si>
+    <t>올드스테어즈</t>
+  </si>
+  <si>
+    <t>HBM000032980</t>
+  </si>
+  <si>
+    <t>594.5-채66ㅅ-2</t>
+  </si>
+  <si>
+    <t>소문난 반찬가게 인기 레시피. 2</t>
+  </si>
+  <si>
+    <t>셰프찬 [외]지음</t>
+  </si>
+  <si>
+    <t>HBM000032981</t>
+  </si>
+  <si>
+    <t>325.1-김14ㅇ</t>
+  </si>
+  <si>
+    <t>1인 미디어 당신의 콘텐츠를 캐스팅하라!</t>
+  </si>
+  <si>
+    <t>김건우 지음</t>
+  </si>
+  <si>
+    <t>인포더북스</t>
+  </si>
+  <si>
+    <t>HBM000032982</t>
+  </si>
+  <si>
+    <t>802.3-소54ㄷ-1</t>
+  </si>
+  <si>
+    <t>소설가를 위한 소설쓰기. 1, 첫 문장과 첫 문단</t>
+  </si>
+  <si>
+    <t>레스 에저턴 지음 ; 방진이 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032983</t>
+  </si>
+  <si>
+    <t>802.3-소54ㄷ-2</t>
+  </si>
+  <si>
+    <t>소설가를 위한 소설쓰기. 2, 장면과 구성</t>
+  </si>
+  <si>
+    <t>마사 앨더슨, 조던 로즌펠드 [공]지음 ; 정미화 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032984</t>
+  </si>
+  <si>
+    <t>802.3-소54ㄷ-3</t>
+  </si>
+  <si>
+    <t>소설가를 위한 소설쓰기. 3, 갈등과 서스펜스</t>
+  </si>
+  <si>
+    <t>제임스 스콧 벨 지음 ; 정미화 옮김</t>
+  </si>
+  <si>
+    <t>HBM000032985</t>
+  </si>
+  <si>
+    <t>518-허36ㅇ</t>
+  </si>
+  <si>
+    <t>예술 속의 파르마콘</t>
+  </si>
+  <si>
+    <t>허문영 지음</t>
+  </si>
+  <si>
+    <t>달아실</t>
+  </si>
+  <si>
+    <t>HBM000032986</t>
+  </si>
+  <si>
+    <t>112.7-바66ㅁㄱ</t>
+  </si>
+  <si>
+    <t>미학</t>
+  </si>
+  <si>
+    <t>알렉산더 고틀리프 바움가르텐 지음 ; 김동훈 옮김</t>
+  </si>
+  <si>
+    <t>마티</t>
+  </si>
+  <si>
+    <t>HBM000032987</t>
+  </si>
+  <si>
+    <t>아동 524-이54ㄴ</t>
+  </si>
+  <si>
+    <t>내가 좋아하는 곡식 = My Favoarite Crops</t>
+  </si>
+  <si>
+    <t>이성실 글 ; 김시영 그림</t>
+  </si>
+  <si>
+    <t>호박꽃</t>
+  </si>
+  <si>
+    <t>HBM000032988</t>
+  </si>
+  <si>
+    <t>유아 410-이44ㅋ</t>
+  </si>
+  <si>
+    <t>키키는 100까지 셀 수 있어!</t>
+  </si>
+  <si>
+    <t>이범규 글 ; 윤정주 그림</t>
+  </si>
+  <si>
+    <t>HBM000032989</t>
+  </si>
+  <si>
+    <t>유아 375.1-르47ㅈㅈ</t>
+  </si>
+  <si>
+    <t>자전거 타고 로켓 타고 : 재미있는 병풍책</t>
+  </si>
+  <si>
+    <t>카트린 르블랑 글 ; 로렌스 리처드 그림 ; 조정훈 옮김</t>
   </si>
 </sst>
 </file>
@@ -5512,11 +6042,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5853,15 +6383,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -6631,16 +7161,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -7219,16 +7749,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -7782,16 +8312,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -8605,16 +9135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -9506,16 +10036,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1430</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -10771,16 +11301,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1634</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -10952,10 +11482,10 @@
       <c r="E8" s="18" t="s">
         <v>1661</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>1662</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>422</v>
       </c>
       <c r="H8" s="11">
@@ -11311,6 +11841,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11348,15 +12958,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -11965,16 +13575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -12693,7 +14303,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -12709,15 +14319,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -13233,16 +14843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -13717,15 +15327,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -14288,16 +15898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -14981,16 +16591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -15596,16 +17206,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>

--- a/Book/반월도서관희망도서목록2019.xlsx
+++ b/Book/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" activeTab="15"/>
+    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="JUL2" sheetId="16" r:id="rId14"/>
     <sheet name="AUG1" sheetId="17" r:id="rId15"/>
     <sheet name="AUG2" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId17"/>
+    <sheet name="SEP1" sheetId="19" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1999">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5768,6 +5769,310 @@
   </si>
   <si>
     <t>카트린 르블랑 글 ; 로렌스 리처드 그림 ; 조정훈 옮김</t>
+  </si>
+  <si>
+    <t>반월도서관 9월 1차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000032990</t>
+  </si>
+  <si>
+    <t>331.5411-박12ㅎ</t>
+  </si>
+  <si>
+    <t>혐오의 미러링</t>
+  </si>
+  <si>
+    <t>박가분 지음</t>
+  </si>
+  <si>
+    <t>HBM000032991</t>
+  </si>
+  <si>
+    <t>671.61-박76ㅈ</t>
+  </si>
+  <si>
+    <t>(크리에이터 박터틀의)작곡독학 가이드북 = Composition self-study</t>
+  </si>
+  <si>
+    <t>박주언 지음</t>
+  </si>
+  <si>
+    <t>1458music</t>
+  </si>
+  <si>
+    <t>HBM000032992</t>
+  </si>
+  <si>
+    <t>005.58-최18ㄷ</t>
+  </si>
+  <si>
+    <t>돈 버는 앱인벤터</t>
+  </si>
+  <si>
+    <t>최기훤 지음</t>
+  </si>
+  <si>
+    <t>비팬북스</t>
+  </si>
+  <si>
+    <t>HBM000032993</t>
+  </si>
+  <si>
+    <t>511.1813-오47ㄷㅇ</t>
+  </si>
+  <si>
+    <t>당신은 뇌를 고칠 수 있다</t>
+  </si>
+  <si>
+    <t>톰 오브라이언 지음 ; 이시은 옮김</t>
+  </si>
+  <si>
+    <t>브론스테인</t>
+  </si>
+  <si>
+    <t>HBM000032994</t>
+  </si>
+  <si>
+    <t>811.9-김88ㅎ</t>
+  </si>
+  <si>
+    <t>한시 속 인생을 묻다 : 찰리 채플린 한시</t>
+  </si>
+  <si>
+    <t>김태봉 지음</t>
+  </si>
+  <si>
+    <t>HBM000032995</t>
+  </si>
+  <si>
+    <t>816.7-최44ㅁ</t>
+  </si>
+  <si>
+    <t>며칠, 다녀올게요</t>
+  </si>
+  <si>
+    <t>티핑포인트</t>
+  </si>
+  <si>
+    <t>HBM000032996</t>
+  </si>
+  <si>
+    <t>327.87-김92ㅅ2</t>
+  </si>
+  <si>
+    <t>수도권 알짜 부동산 답사기 : 알짜 노하우</t>
+  </si>
+  <si>
+    <t>김학렬 지음</t>
+  </si>
+  <si>
+    <t>지혜로</t>
+  </si>
+  <si>
+    <t>HBM000032997</t>
+  </si>
+  <si>
+    <t>513.73-하63ㅍㅅ</t>
+  </si>
+  <si>
+    <t>평생 걷게하는 뼈 만들기</t>
+  </si>
+  <si>
+    <t>하야시 야스후미 지음 ; 서희경 옮김</t>
+  </si>
+  <si>
+    <t>시사문화사</t>
+  </si>
+  <si>
+    <t>HBM000032998</t>
+  </si>
+  <si>
+    <t>005.133-정18ㅅ</t>
+  </si>
+  <si>
+    <t>(게임을 만들며 배우는)C 언어 : break out 벽돌 깨기 게임</t>
+  </si>
+  <si>
+    <t>정기철 지음</t>
+  </si>
+  <si>
+    <t>홍릉과학</t>
+  </si>
+  <si>
+    <t>HBM000032999</t>
+  </si>
+  <si>
+    <t>539.7-사58ㅊㅇ2</t>
+  </si>
+  <si>
+    <t>창조도시를 디자인하라 : 도시의 문화정책과 마을만들기</t>
+  </si>
+  <si>
+    <t>사사키 마사유키, 종합연구개발기구 [공]지음 ; 이석현 옮김</t>
+  </si>
+  <si>
+    <t>美세움</t>
+  </si>
+  <si>
+    <t>HBM000033000</t>
+  </si>
+  <si>
+    <t>470-마16ㅅㄱ2</t>
+  </si>
+  <si>
+    <t>생명이란 무엇인가</t>
+  </si>
+  <si>
+    <t>린 마굴리스, 도리언 세이건 [공]지음 ; 김영 옮김</t>
+  </si>
+  <si>
+    <t>리수</t>
+  </si>
+  <si>
+    <t>HBM000033001</t>
+  </si>
+  <si>
+    <t>185.51-홍76ㄹ</t>
+  </si>
+  <si>
+    <t>라캉, 클라인, 자아심리학 = Jacques Lacan, Melanie Klein, ego psychology</t>
+  </si>
+  <si>
+    <t>홍준기 지음</t>
+  </si>
+  <si>
+    <t>새물결</t>
+  </si>
+  <si>
+    <t>HBM000033002</t>
+  </si>
+  <si>
+    <t>843-맥33ㄴㅇ</t>
+  </si>
+  <si>
+    <t>누군가는 거짓말을 하고 있다 : 캐런 M. 맥매너스 장편소설</t>
+  </si>
+  <si>
+    <t>캐런 M. 맥매너스 지음 ; 이영아 옮김</t>
+  </si>
+  <si>
+    <t>HBM000033003</t>
+  </si>
+  <si>
+    <t>843-켄88ㅎㄴ</t>
+  </si>
+  <si>
+    <t>훔쳐보는 여자 : 민카 켄트 장편소설</t>
+  </si>
+  <si>
+    <t>민카 켄트 지음 ; 나현진 옮김</t>
+  </si>
+  <si>
+    <t>HBM000033004</t>
+  </si>
+  <si>
+    <t>598.1-김74ㄱ</t>
+  </si>
+  <si>
+    <t>기적의 밥상머리 교육</t>
+  </si>
+  <si>
+    <t>김정진 지음</t>
+  </si>
+  <si>
+    <t>예문</t>
+  </si>
+  <si>
+    <t>HBM000033005</t>
+  </si>
+  <si>
+    <t>813.7-황66ㅍ</t>
+  </si>
+  <si>
+    <t>피구왕 서영 : 황유미 소설집</t>
+  </si>
+  <si>
+    <t>황유미 지음</t>
+  </si>
+  <si>
+    <t>빌리버튼</t>
+  </si>
+  <si>
+    <t>HBM000033006</t>
+  </si>
+  <si>
+    <t>808-세14ㅁ-183</t>
+  </si>
+  <si>
+    <t>모비 딕 : 허먼 멜빌 장편소설. 1</t>
+  </si>
+  <si>
+    <t>허먼 멜빌 지음 ; 황유원 옮김</t>
+  </si>
+  <si>
+    <t>HBM000033007</t>
+  </si>
+  <si>
+    <t>808-세14ㅁ-184</t>
+  </si>
+  <si>
+    <t>모비 딕 : 허먼 멜빌 장편소설. 2</t>
+  </si>
+  <si>
+    <t>HBM000033008</t>
+  </si>
+  <si>
+    <t>327.856-버89ㅂ-1=2</t>
+  </si>
+  <si>
+    <t>버핏클럽 = Buffett club. issue 1, Becoming Warren Buffett</t>
+  </si>
+  <si>
+    <t>김철광 외 지음</t>
+  </si>
+  <si>
+    <t>북돋움·에프엔미디어</t>
+  </si>
+  <si>
+    <t>HBM000033009</t>
+  </si>
+  <si>
+    <t>327.856-버89ㅂ-2</t>
+  </si>
+  <si>
+    <t>버핏클럽 = Buffett club. issue 2, Buffett''s Evolution</t>
+  </si>
+  <si>
+    <t>강영연 외 지음</t>
+  </si>
+  <si>
+    <t>HBM000033010</t>
+  </si>
+  <si>
+    <t>325.211-모46ㅁㅇ</t>
+  </si>
+  <si>
+    <t>마이클 모부신 운과 실력의 성공 방정식</t>
+  </si>
+  <si>
+    <t>마이클 모부신 지음 ; 이건, 박성진, 정채진 [공]옮김</t>
+  </si>
+  <si>
+    <t>HBM000033011</t>
+  </si>
+  <si>
+    <t>327.856-메68ㅂㅅ</t>
+  </si>
+  <si>
+    <t>100배 주식</t>
+  </si>
+  <si>
+    <t>크리스토퍼 메이어 지음 ; 송선재(와이민) 옮김</t>
+  </si>
+  <si>
+    <t>Water Bear Press</t>
   </si>
 </sst>
 </file>
@@ -5939,7 +6244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6046,6 +6351,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11844,7 +12152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -12921,6 +13229,644 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H21" s="21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Book/반월도서관희망도서목록2019.xlsx
+++ b/Book/반월도서관희망도서목록2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="2295" yWindow="150" windowWidth="21600" windowHeight="15435" firstSheet="2" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="JAN1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,8 @@
     <sheet name="AUG1" sheetId="17" r:id="rId15"/>
     <sheet name="AUG2" sheetId="18" r:id="rId16"/>
     <sheet name="SEP1" sheetId="19" r:id="rId17"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId18"/>
+    <sheet name="SEP2" sheetId="20" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="2072">
   <si>
     <t>반월도서관 1월 1차 희망도서 입수목록(31권)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6073,6 +6074,226 @@
   </si>
   <si>
     <t>Water Bear Press</t>
+  </si>
+  <si>
+    <t>반월도서관 9월 2차 희망도서 입수목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBM000033012</t>
+  </si>
+  <si>
+    <t>181.4-히29ㅅㅈ</t>
+  </si>
+  <si>
+    <t>(인생이 10배 유리해지는)슈퍼 기억력 트레이닝</t>
+  </si>
+  <si>
+    <t>히라타 나오야 지음 ; 정현옥 옮김</t>
+  </si>
+  <si>
+    <t>다른상상</t>
+  </si>
+  <si>
+    <t>HBM000033013</t>
+  </si>
+  <si>
+    <t>594.68-김94ㅅ</t>
+  </si>
+  <si>
+    <t>시의적절 약선음식</t>
+  </si>
+  <si>
+    <t>김형찬, 고은정 [공]지음 ; 류관희 사진</t>
+  </si>
+  <si>
+    <t>홍익</t>
+  </si>
+  <si>
+    <t>HBM000033014</t>
+  </si>
+  <si>
+    <t>378.9-조18ㅈ</t>
+  </si>
+  <si>
+    <t>(조기원교수의)자녀 성적, 엄마 하기 달렸다</t>
+  </si>
+  <si>
+    <t>조기원 지음</t>
+  </si>
+  <si>
+    <t>HBM000033015</t>
+  </si>
+  <si>
+    <t>594.5-도87ㄱㄱ</t>
+  </si>
+  <si>
+    <t>그 조리법, 아직도 영양소의 90%를 버리고 있어요!</t>
+  </si>
+  <si>
+    <t>도쿄지케이카이의과대학 부속병원 영양부 지음 ; 김경은 옮김</t>
+  </si>
+  <si>
+    <t>HBM000033016</t>
+  </si>
+  <si>
+    <t>740.7-이78ㄱ</t>
+  </si>
+  <si>
+    <t>(아이와 함께 차근차근 성장하는)기적의 엄마표 영어</t>
+  </si>
+  <si>
+    <t>이지영 지음</t>
+  </si>
+  <si>
+    <t>HBM000033017</t>
+  </si>
+  <si>
+    <t>아동 823.7-레65ㅁㅅ-4</t>
+  </si>
+  <si>
+    <t>(찰리 9세와)미스터리 사건 탐험대. 4, 울부짖는 탄광 마을</t>
+  </si>
+  <si>
+    <t>레온 이미지 글·그림 ; 신주리 옮김</t>
+  </si>
+  <si>
+    <t>다락원</t>
+  </si>
+  <si>
+    <t>HBM000033018</t>
+  </si>
+  <si>
+    <t>아동 833.8-트29ㅊㄱ-7</t>
+  </si>
+  <si>
+    <t>추리 천재 엉덩이 탐정. 7, 기이한 전망 여관 사건</t>
+  </si>
+  <si>
+    <t>트롤 글·그림 ; 김정화 옮김</t>
+  </si>
+  <si>
+    <t>아이세움</t>
+  </si>
+  <si>
+    <t>HBM000033019</t>
+  </si>
+  <si>
+    <t>아동 833.8-트29ㅊㄱ-8</t>
+  </si>
+  <si>
+    <t>추리 천재 엉덩이 탐정. 8, 괴도와 납치된 신부 사건</t>
+  </si>
+  <si>
+    <t>HBM000033020</t>
+  </si>
+  <si>
+    <t>814.7-태97ㅁ</t>
+  </si>
+  <si>
+    <t>마음의 결 : 태희 에세이</t>
+  </si>
+  <si>
+    <t>태희 지음</t>
+  </si>
+  <si>
+    <t>피어오름</t>
+  </si>
+  <si>
+    <t>HBM000033021</t>
+  </si>
+  <si>
+    <t>325.211-이73ㅇ</t>
+  </si>
+  <si>
+    <t>열정에 기름붓기</t>
+  </si>
+  <si>
+    <t>이재선, 표시형 [공]지음</t>
+  </si>
+  <si>
+    <t>천년의상상</t>
+  </si>
+  <si>
+    <t>HBM000033022</t>
+  </si>
+  <si>
+    <t>189.2-샌27ㅇㅇ</t>
+  </si>
+  <si>
+    <t>어쩌다 우리 사이가 이렇게 됐을까</t>
+  </si>
+  <si>
+    <t>일자 샌드 지음 ; 이은경 옮김</t>
+  </si>
+  <si>
+    <t>HBM000033023</t>
+  </si>
+  <si>
+    <t>598.1-이94ㄴ</t>
+  </si>
+  <si>
+    <t>나는 매일 도서관에 가는 엄마입니다</t>
+  </si>
+  <si>
+    <t>이혜진 지음</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>HBM000033024</t>
+  </si>
+  <si>
+    <t>199.1-베68ㅂㄱ</t>
+  </si>
+  <si>
+    <t>베스트 셀프</t>
+  </si>
+  <si>
+    <t>마이크 베이어 지음 ; 강주헌 옮김</t>
+  </si>
+  <si>
+    <t>안드로메디안</t>
+  </si>
+  <si>
+    <t>HBM000033025</t>
+  </si>
+  <si>
+    <t>515.18-하54ㄴㅇ</t>
+  </si>
+  <si>
+    <t>뇌 노화를 멈추려면 35세부터 치아관리 습관을 바꿔라</t>
+  </si>
+  <si>
+    <t>하세가와 요시야 지음 ; 이진원 옮김</t>
+  </si>
+  <si>
+    <t>갈매나무</t>
+  </si>
+  <si>
+    <t>HBM000033026</t>
+  </si>
+  <si>
+    <t>813.7-정54ㅂ</t>
+  </si>
+  <si>
+    <t>보건교사 안은영 : 정세랑 장편소설</t>
+  </si>
+  <si>
+    <t>정세랑 지음</t>
+  </si>
+  <si>
+    <t>HBM000033027</t>
+  </si>
+  <si>
+    <t>414.1-나12ㄷㅈ</t>
+  </si>
+  <si>
+    <t>다시 미분 적분 = Try again, calculas!</t>
+  </si>
+  <si>
+    <t>나가노 히로유키 지음 ; 장진희 옮김</t>
   </si>
 </sst>
 </file>
@@ -6244,7 +6465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6350,11 +6571,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6691,15 +6915,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -7469,16 +7693,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -8057,16 +8281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -8620,16 +8844,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1156</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -9443,16 +9667,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -10344,16 +10568,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1430</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -11609,16 +11833,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1634</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -12169,16 +12393,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -13232,7 +13456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -13249,38 +13473,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1898</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13867,6 +14091,491 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H11" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="H18" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13904,15 +14613,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -14521,16 +15230,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -15265,15 +15974,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -15789,16 +16498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
@@ -16273,15 +16982,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -16844,16 +17553,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -17537,16 +18246,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -18152,16 +18861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
